--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3541.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3541.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.808533500926973</v>
+        <v>0.8255366086959839</v>
       </c>
       <c r="B1">
-        <v>2.164155938170732</v>
+        <v>0.8140806555747986</v>
       </c>
       <c r="C1">
-        <v>2.084689888922501</v>
+        <v>0.8525411486625671</v>
       </c>
       <c r="D1">
-        <v>2.468373499389599</v>
+        <v>1.065831542015076</v>
       </c>
       <c r="E1">
-        <v>3.408090497427852</v>
+        <v>0.9572010636329651</v>
       </c>
     </row>
   </sheetData>
